--- a/biology/Botanique/Conanthera/Conanthera.xlsx
+++ b/biology/Botanique/Conanthera/Conanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conanthera est un genre de plantes monocotylédones de la famille des Tecophilaeaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Conanthera sont des petites plantes bulbeuses avec de petites panicules de fleurs bleues, violettes ou blanches et violettes. Leur propagation se fait par compensations ou par graines.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les espèces sont originaires du Chili, mais il existe un ancien rapport du XVIIIe siècle faisant état de C. bifolia présent dans un spécimen colonial du Pérou[1] également. Cela pourrait éventuellement être attribué aux changements de frontières entre les deux pays, car les sources modernes répertorient les espèces comme endémiques au Chili[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les espèces sont originaires du Chili, mais il existe un ancien rapport du XVIIIe siècle faisant état de C. bifolia présent dans un spécimen colonial du Pérou également. Cela pourrait éventuellement être attribué aux changements de frontières entre les deux pays, car les sources modernes répertorient les espèces comme endémiques au Chili,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 janvier 2024)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 janvier 2024) :
 Conanthera biflora F.Phil., 1881
 Conanthera bifolia Ruiz &amp; Pav.
 Conanthera campanulata Lindl.
@@ -611,10 +629,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Conanthera Ruiz &amp; Pav.[4].
-Conanthera a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Conanthera Ruiz &amp; Pav..
+Conanthera a pour synonymes :
 Cumingia Kunth
 Cummingia D.Don</t>
         </is>
